--- a/utilities/Coface _API_ Products.xlsx
+++ b/utilities/Coface _API_ Products.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105"/>
   </bookViews>
   <sheets>
-    <sheet name="NEW" sheetId="2" r:id="rId1"/>
+    <sheet name="API_Products" sheetId="2" r:id="rId1"/>
     <sheet name="DemoCompanies_UAT" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
   <si>
     <t>Full Report</t>
   </si>
@@ -129,9 +129,6 @@
     <t>dra-report</t>
   </si>
   <si>
-    <t>credit-report</t>
-  </si>
-  <si>
     <t>advanced-opinion-report</t>
   </si>
   <si>
@@ -379,13 +376,114 @@
   </si>
   <si>
     <t>PRODUCT ( table backoffice)</t>
+  </si>
+  <si>
+    <t>Debtor Risk Assessment (DRA)</t>
+  </si>
+  <si>
+    <t>Credit Opinion</t>
+  </si>
+  <si>
+    <t>Country Risk Assessment</t>
+  </si>
+  <si>
+    <t>Sector Risk Assessment</t>
+  </si>
+  <si>
+    <t>Debtor Risk Assessment Package</t>
+  </si>
+  <si>
+    <t>Full Report</t>
+  </si>
+  <si>
+    <t>Snapshot Report</t>
+  </si>
+  <si>
+    <t>Full Report URBA with monitoring</t>
+  </si>
+  <si>
+    <t>Full Report URBA</t>
+  </si>
+  <si>
+    <t>Full Report plus IGF</t>
+  </si>
+  <si>
+    <t>credit-opinion-report</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Label/ Report Name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(can be used to display it to user)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DRA </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(It can be used "DRA Report")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Advanced Opinion </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(It can be used "Advanced Opinion Report")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">@ Credit Opinion </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(It can be used "Credit Opinion Report)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,13 +510,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -457,6 +548,37 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -501,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -517,6 +639,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,559 +960,651 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="27.75">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>900</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>901</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="9"/>
+      <c r="F5" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" s="9"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>902</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>903</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="9"/>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="C9" s="9"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>904</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>905</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="9"/>
+      <c r="F11" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="C12" s="9"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>906</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>907</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="9"/>
+      <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="C15" s="9"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>908</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>909</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="9"/>
+      <c r="F17" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="C18" s="9"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>910</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>911</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="9"/>
+      <c r="F20" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="C21" s="9"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>930</v>
       </c>
       <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>931</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="C23" s="9"/>
+      <c r="D23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="C24" s="9"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="C25" s="9"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>199</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>197</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="9"/>
+      <c r="F27" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>9993</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>9992</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="9"/>
+      <c r="F29" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="C30" s="9"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>20300</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>20310</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" s="9"/>
+      <c r="F32" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="C33" s="9"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>20400</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="C34" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>20410</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="C35" s="9"/>
+      <c r="D35" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>20500</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="C37" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>20510</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="C38" s="9"/>
+      <c r="D38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="C39" s="9"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>305</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="C40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>306</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="C41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>189</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="C42" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>187</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="C43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>301</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="C44" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>303</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="C45" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1407,590 +1628,590 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" thickBot="1">
       <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.75" thickBot="1">
       <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="C2" s="4">
         <v>4464990</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24.75" thickBot="1">
       <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="C3" s="4">
         <v>6902380</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1">
       <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C4" s="4">
         <v>4527370</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
       <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C5" s="4">
         <v>4724020</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C6" s="4">
         <v>5415240</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1">
       <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C7" s="4">
         <v>5606280</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1">
       <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C8" s="4">
         <v>1779730</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1">
       <c r="A9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C9" s="4">
         <v>4180600</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1">
       <c r="A10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="C10" s="4">
         <v>149410</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4">
         <v>1683850</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1">
       <c r="A12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="C12" s="4">
         <v>48310</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1">
       <c r="A13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4">
         <v>880200</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1">
       <c r="A14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4">
         <v>1512030</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1">
       <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="C15" s="4">
         <v>39610</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1">
       <c r="A16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="C16" s="4">
         <v>4176280</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4">
         <v>15295920</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="4">
         <v>99654390</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" thickBot="1">
       <c r="A19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="4">
         <v>71212820</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1">
       <c r="A20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="4">
         <v>102296980</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1">
       <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="C21" s="4">
         <v>4192180</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1">
       <c r="A22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="C22" s="4">
         <v>15399820</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1">
       <c r="A23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="C23" s="4">
         <v>9877800</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1">
       <c r="A24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="C24" s="4">
         <v>9417100</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1">
       <c r="A25" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="4">
         <v>85826040</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1">
       <c r="A26" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="4">
         <v>93498060</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1">
       <c r="A27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="C27" s="4">
         <v>10131710</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1">
       <c r="A28" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="4">
         <v>93635090</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.75" thickBot="1">
       <c r="A29" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="4">
         <v>9530410</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1">
       <c r="A30" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="4">
         <v>44605500</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1">
       <c r="A31" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="4">
         <v>45281240</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="24.75" thickBot="1">
       <c r="A32" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="4">
         <v>59732250</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1">
       <c r="A33" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="4">
         <v>102257290</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1">
       <c r="A34" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="4">
         <v>81355120</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1">
       <c r="A35" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="4">
         <v>81312280</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1">
       <c r="A36" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="4">
         <v>81233910</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1">
       <c r="A37" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="4">
         <v>81663150</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1">
       <c r="A38" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="4">
         <v>81663180</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="24.75" thickBot="1">
       <c r="A39" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="4">
         <v>80821850</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1">
       <c r="A40" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" s="4">
         <v>81346530</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1">
       <c r="A41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="4">
         <v>81106110</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1">
       <c r="A42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="4">
         <v>80788410</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
